--- a/Comprar Produto.xlsx
+++ b/Comprar Produto.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Pré-condição:</t>
   </si>
@@ -27,67 +28,85 @@
     <t>Use Case:</t>
   </si>
   <si>
-    <t>Utilizador autenticado no sistema</t>
-  </si>
-  <si>
     <t>Utilizador Registado</t>
   </si>
   <si>
     <t>Sistema</t>
   </si>
   <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Fluxo Principal</t>
   </si>
   <si>
     <t>Passo</t>
   </si>
   <si>
-    <t>Gerir Conta</t>
-  </si>
-  <si>
-    <t>Adicionar ou alterar dados de conta de utilizador</t>
-  </si>
-  <si>
-    <t>Seleciona dados de conta</t>
-  </si>
-  <si>
-    <t>Seleciona campo a alterar</t>
-  </si>
-  <si>
-    <t>Actualiza campo</t>
-  </si>
-  <si>
-    <t>Confirma alteração</t>
-  </si>
-  <si>
-    <t>Apresenta dados de conta</t>
-  </si>
-  <si>
-    <t>Efectua alteração</t>
-  </si>
-  <si>
-    <t>Apresenta formulário</t>
-  </si>
-  <si>
-    <t>[formulário inválido]</t>
-  </si>
-  <si>
-    <t>Informa que dados são inválidos</t>
-  </si>
-  <si>
-    <t>Volta ao passo 4</t>
-  </si>
-  <si>
-    <t>Valida dados</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>Alternativa (passo 6)</t>
+    <t>seleciona produto</t>
+  </si>
+  <si>
+    <t>Comprar Produto</t>
+  </si>
+  <si>
+    <t>Alternativa (passo8)</t>
+  </si>
+  <si>
+    <t>Excepção 1(passo 2)</t>
+  </si>
+  <si>
+    <t>Confirma/altera morada de envio</t>
+  </si>
+  <si>
+    <t>Apresenta métodos de pagamento</t>
+  </si>
+  <si>
+    <t>Seleciona método</t>
+  </si>
+  <si>
+    <t>Efectua pagamento</t>
+  </si>
+  <si>
+    <t>Confirma compra de produto</t>
+  </si>
+  <si>
+    <t>Informa que não existe produto em stock</t>
+  </si>
+  <si>
+    <t>[stock vazio]</t>
+  </si>
+  <si>
+    <t>[método inválido]</t>
+  </si>
+  <si>
+    <t>Envia factura</t>
+  </si>
+  <si>
+    <t>Informa que método de pagamento é inválido ou está indisponível</t>
+  </si>
+  <si>
+    <t>Verifica se existe produto em stock</t>
+  </si>
+  <si>
+    <t>Efectuar compra de produtos do carrinho de compras</t>
+  </si>
+  <si>
+    <t>Utilizador autenticado no sistema e carrinho de compras não vazio</t>
+  </si>
+  <si>
+    <t>Apresenta morada de envio do utilizador</t>
+  </si>
+  <si>
+    <t>Remove produto do carrinho de compras</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Volta ao passo 5</t>
   </si>
 </sst>
 </file>
@@ -149,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -204,15 +223,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -271,60 +281,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,207 +662,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
